--- a/Configs/GeneralParameters.xlsx
+++ b/Configs/GeneralParameters.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0870E5D7-1526-4AF8-95BF-3BBED9ACB9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E072AA-D4B4-4EAF-9DBF-52AB035E107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2093" windowWidth="20107" windowHeight="13709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="16238" windowHeight="13711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,6 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -74,6 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -89,6 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -98,6 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -113,6 +117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -122,6 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -137,6 +143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -146,6 +153,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -161,6 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -170,6 +179,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -185,6 +195,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -194,6 +205,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -209,6 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -218,6 +231,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -233,6 +247,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -242,6 +257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -249,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{2430F142-E82F-4A40-8FDB-12D6A42FEF2B}">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{2430F142-E82F-4A40-8FDB-12D6A42FEF2B}">
       <text>
         <r>
           <rPr>
@@ -257,6 +273,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -266,6 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -278,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,6 +422,10 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hungerLostInSleep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,19 +461,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -758,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -935,9 +944,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <f>8/B9*B8</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Configs/GeneralParameters.xlsx
+++ b/Configs/GeneralParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E072AA-D4B4-4EAF-9DBF-52AB035E107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E50ED-0361-4205-A352-D082EF0DF3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="16238" windowHeight="13711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,10 +382,6 @@
   </si>
   <si>
     <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -770,7 +766,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -896,7 +892,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
@@ -904,15 +900,15 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -920,7 +916,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -928,7 +924,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -936,15 +932,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <f>8/B9*B8</f>
@@ -953,10 +949,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GeneralParameters.xlsx
+++ b/Configs/GeneralParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E50ED-0361-4205-A352-D082EF0DF3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC2EDE-36FE-42BB-9CE1-2807A6D3D90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="18937" windowHeight="15059" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,95 +333,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeEnergyCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeTimeCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeroHungerLostHPValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeroHungerLostSpiritValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zeroHungerLostTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hungerLostValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hungerLostTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hPGrowHunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hPGrowValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hPGrowTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyGrowValueInDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyGrowTimeInDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyGrowInSleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aHourInRealTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hungerLostInSleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodeEnergyCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodeTimeCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zeroHungerLostHPValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zeroHungerLostSpiritValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zeroHungerLostTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hungerLostValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hungerLostTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hPGrowHunger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hPGrowValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hPGrowTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyGrowValueInDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyGrowTimeInDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energyGrowInSleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aHourInRealTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hungerLostInSleep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +766,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -815,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -836,111 +836,111 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <f>8/B9*B8</f>
@@ -949,10 +949,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GeneralParameters.xlsx
+++ b/Configs/GeneralParameters.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AC2EDE-36FE-42BB-9CE1-2807A6D3D90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ABEC42-2F81-447A-88E8-4D807055E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="18937" windowHeight="15059" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1140" windowWidth="18938" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{E838031A-84BD-419A-A029-E88DA6E054C6}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{E838031A-84BD-419A-A029-E88DA6E054C6}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{AE621E0C-A8DF-440C-A397-0BE714E58778}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{AE621E0C-A8DF-440C-A397-0BE714E58778}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{07618EB2-FC52-4999-9789-92B654D614EA}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{07618EB2-FC52-4999-9789-92B654D614EA}">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{B3B6F3E9-4826-451B-847B-BE6B21C8A462}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{B3B6F3E9-4826-451B-847B-BE6B21C8A462}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{FA654849-E385-4E3A-9806-35ABB6D3D356}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{FA654849-E385-4E3A-9806-35ABB6D3D356}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{98163A74-B07B-4282-9EDE-91B5318ED8B8}">
+    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{98163A74-B07B-4282-9EDE-91B5318ED8B8}">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{20E7E519-9638-49F6-BCCB-3DFDE0ED001D}">
+    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{20E7E519-9638-49F6-BCCB-3DFDE0ED001D}">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{A40376CF-309D-4597-8956-D04611578FAD}">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{A40376CF-309D-4597-8956-D04611578FAD}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0" xr:uid="{2430F142-E82F-4A40-8FDB-12D6A42FEF2B}">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{2430F142-E82F-4A40-8FDB-12D6A42FEF2B}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,7 +421,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startHunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startSpirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -836,87 +860,87 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -924,34 +948,66 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="1">
-        <f>8/B9*B8</f>
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <f>8/B13*B12</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Configs/GeneralParameters.xlsx
+++ b/Configs/GeneralParameters.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ABEC42-2F81-447A-88E8-4D807055E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B4386-8544-406D-AE37-7B5194FEFF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1140" windowWidth="18938" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="1140" windowWidth="18937" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hungerLostInSleep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,6 +442,14 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,7 +794,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -839,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -860,7 +864,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -868,23 +872,23 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -895,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -911,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -975,7 +979,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -996,7 +1000,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <f>8/B13*B12</f>
@@ -1008,7 +1012,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GeneralParameters.xlsx
+++ b/Configs/GeneralParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1B4386-8544-406D-AE37-7B5194FEFF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF67ED9-1466-4376-9963-6D2400D11782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="1140" windowWidth="18937" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1140" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,11 +445,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +794,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -979,7 +979,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -1012,7 +1012,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GeneralParameters.xlsx
+++ b/Configs/GeneralParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BOOOMJAM25-4\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF67ED9-1466-4376-9963-6D2400D11782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791E6A37-3968-4C31-9C82-9BB8A2366225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1140" windowWidth="24308" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="24307" windowHeight="15059" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,14 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>startHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,7 +437,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25</t>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +786,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -843,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -864,47 +856,47 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -915,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -923,28 +915,28 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -952,15 +944,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
@@ -968,7 +960,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -976,43 +968,43 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <f>8/B13*B12</f>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
